--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Apod-Lepr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Apod-Lepr.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.327089666666667</v>
+        <v>1.147582333333333</v>
       </c>
       <c r="H2">
-        <v>3.981269</v>
+        <v>3.442747</v>
       </c>
       <c r="I2">
-        <v>0.0007725509783306236</v>
+        <v>0.0006681225322425688</v>
       </c>
       <c r="J2">
-        <v>0.0007725509783306238</v>
+        <v>0.0006681225322425686</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.773245666666666</v>
+        <v>1.186139</v>
       </c>
       <c r="N2">
-        <v>8.319737</v>
+        <v>3.558416999999999</v>
       </c>
       <c r="O2">
-        <v>0.1610278523700304</v>
+        <v>0.07586413741082078</v>
       </c>
       <c r="P2">
-        <v>0.1610278523700304</v>
+        <v>0.07586413741082078</v>
       </c>
       <c r="Q2">
-        <v>3.680345667361444</v>
+        <v>1.361192161277666</v>
       </c>
       <c r="R2">
-        <v>33.123111006253</v>
+        <v>12.250729451499</v>
       </c>
       <c r="S2">
-        <v>0.0001244022248869462</v>
+        <v>5.068653959331577E-05</v>
       </c>
       <c r="T2">
-        <v>0.0001244022248869462</v>
+        <v>5.068653959331576E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.327089666666667</v>
+        <v>1.147582333333333</v>
       </c>
       <c r="H3">
-        <v>3.981269</v>
+        <v>3.442747</v>
       </c>
       <c r="I3">
-        <v>0.0007725509783306236</v>
+        <v>0.0006681225322425688</v>
       </c>
       <c r="J3">
-        <v>0.0007725509783306238</v>
+        <v>0.0006681225322425686</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>35.053576</v>
       </c>
       <c r="O3">
-        <v>0.6784591942232839</v>
+        <v>0.7473293058134135</v>
       </c>
       <c r="P3">
-        <v>0.6784591942232838</v>
+        <v>0.7473293058134136</v>
       </c>
       <c r="Q3">
-        <v>15.50641282977155</v>
+        <v>13.40895484591911</v>
       </c>
       <c r="R3">
-        <v>139.557715467944</v>
+        <v>120.680593613272</v>
       </c>
       <c r="S3">
-        <v>0.0005241443142546046</v>
+        <v>0.0004993075482191389</v>
       </c>
       <c r="T3">
-        <v>0.0005241443142546046</v>
+        <v>0.0004993075482191389</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.327089666666667</v>
+        <v>1.147582333333333</v>
       </c>
       <c r="H4">
-        <v>3.981269</v>
+        <v>3.442747</v>
       </c>
       <c r="I4">
-        <v>0.0007725509783306236</v>
+        <v>0.0006681225322425688</v>
       </c>
       <c r="J4">
-        <v>0.0007725509783306238</v>
+        <v>0.0006681225322425686</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.764378</v>
+        <v>2.764377999999999</v>
       </c>
       <c r="N4">
-        <v>8.293134</v>
+        <v>8.293133999999998</v>
       </c>
       <c r="O4">
-        <v>0.1605129534066858</v>
+        <v>0.1768065567757656</v>
       </c>
       <c r="P4">
-        <v>0.1605129534066858</v>
+        <v>0.1768065567757657</v>
       </c>
       <c r="Q4">
-        <v>3.668577478560667</v>
+        <v>3.172351355455332</v>
       </c>
       <c r="R4">
-        <v>33.017197307046</v>
+        <v>28.55116219909799</v>
       </c>
       <c r="S4">
-        <v>0.0001240044391890729</v>
+        <v>0.0001181284444301141</v>
       </c>
       <c r="T4">
-        <v>0.0001240044391890729</v>
+        <v>0.0001181284444301141</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>5034.058227</v>
       </c>
       <c r="I5">
-        <v>0.9768409540380654</v>
+        <v>0.9769430428898132</v>
       </c>
       <c r="J5">
-        <v>0.9768409540380655</v>
+        <v>0.9769430428898132</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.773245666666666</v>
+        <v>1.186139</v>
       </c>
       <c r="N5">
-        <v>8.319737</v>
+        <v>3.558416999999999</v>
       </c>
       <c r="O5">
-        <v>0.1610278523700304</v>
+        <v>0.07586413741082078</v>
       </c>
       <c r="P5">
-        <v>0.1610278523700304</v>
+        <v>0.07586413741082078</v>
       </c>
       <c r="Q5">
-        <v>4653.560054591811</v>
+        <v>1990.36426377185</v>
       </c>
       <c r="R5">
-        <v>41882.0404913263</v>
+        <v>17913.27837394665</v>
       </c>
       <c r="S5">
-        <v>0.1572986009358412</v>
+        <v>0.07411494124833816</v>
       </c>
       <c r="T5">
-        <v>0.1572986009358412</v>
+        <v>0.07411494124833816</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>5034.058227</v>
       </c>
       <c r="I6">
-        <v>0.9768409540380654</v>
+        <v>0.9769430428898132</v>
       </c>
       <c r="J6">
-        <v>0.9768409540380655</v>
+        <v>0.9769430428898132</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>35.053576</v>
       </c>
       <c r="O6">
-        <v>0.6784591942232839</v>
+        <v>0.7473293058134135</v>
       </c>
       <c r="P6">
-        <v>0.6784591942232838</v>
+        <v>0.7473293058134136</v>
       </c>
       <c r="Q6">
         <v>19606.86029428553</v>
@@ -818,10 +818,10 @@
         <v>176461.7426485697</v>
       </c>
       <c r="S6">
-        <v>0.6627467265609698</v>
+        <v>0.7300981660620879</v>
       </c>
       <c r="T6">
-        <v>0.6627467265609698</v>
+        <v>0.730098166062088</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>5034.058227</v>
       </c>
       <c r="I7">
-        <v>0.9768409540380654</v>
+        <v>0.9769430428898132</v>
       </c>
       <c r="J7">
-        <v>0.9768409540380655</v>
+        <v>0.9769430428898132</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.764378</v>
+        <v>2.764377999999999</v>
       </c>
       <c r="N7">
-        <v>8.293134</v>
+        <v>8.293133999999998</v>
       </c>
       <c r="O7">
-        <v>0.1605129534066858</v>
+        <v>0.1768065567757656</v>
       </c>
       <c r="P7">
-        <v>0.1605129534066858</v>
+        <v>0.1768065567757657</v>
       </c>
       <c r="Q7">
-        <v>4638.679937812602</v>
+        <v>4638.679937812601</v>
       </c>
       <c r="R7">
         <v>41748.11944031341</v>
       </c>
       <c r="S7">
-        <v>0.1567956265412545</v>
+        <v>0.172729935579387</v>
       </c>
       <c r="T7">
-        <v>0.1567956265412545</v>
+        <v>0.172729935579387</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>115.366702</v>
       </c>
       <c r="I8">
-        <v>0.02238649498360385</v>
+        <v>0.02238883457794425</v>
       </c>
       <c r="J8">
-        <v>0.02238649498360385</v>
+        <v>0.02238883457794424</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.773245666666666</v>
+        <v>1.186139</v>
       </c>
       <c r="N8">
-        <v>8.319737</v>
+        <v>3.558416999999999</v>
       </c>
       <c r="O8">
-        <v>0.1610278523700304</v>
+        <v>0.07586413741082078</v>
       </c>
       <c r="P8">
-        <v>0.1610278523700304</v>
+        <v>0.07586413741082078</v>
       </c>
       <c r="Q8">
-        <v>106.6467354663749</v>
+        <v>45.61364818119266</v>
       </c>
       <c r="R8">
-        <v>959.820619197374</v>
+        <v>410.5228336307339</v>
       </c>
       <c r="S8">
-        <v>0.003604849209302187</v>
+        <v>0.001698509622889298</v>
       </c>
       <c r="T8">
-        <v>0.003604849209302187</v>
+        <v>0.001698509622889298</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>115.366702</v>
       </c>
       <c r="I9">
-        <v>0.02238649498360385</v>
+        <v>0.02238883457794425</v>
       </c>
       <c r="J9">
-        <v>0.02238649498360385</v>
+        <v>0.02238883457794424</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>35.053576</v>
       </c>
       <c r="O9">
-        <v>0.6784591942232839</v>
+        <v>0.7473293058134135</v>
       </c>
       <c r="P9">
-        <v>0.6784591942232838</v>
+        <v>0.7473293058134136</v>
       </c>
       <c r="Q9">
-        <v>449.335050714039</v>
+        <v>449.3350507140391</v>
       </c>
       <c r="R9">
         <v>4044.015456426352</v>
       </c>
       <c r="S9">
-        <v>0.01518832334805945</v>
+        <v>0.01673183220310642</v>
       </c>
       <c r="T9">
-        <v>0.01518832334805945</v>
+        <v>0.01673183220310642</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>115.366702</v>
       </c>
       <c r="I10">
-        <v>0.02238649498360385</v>
+        <v>0.02238883457794425</v>
       </c>
       <c r="J10">
-        <v>0.02238649498360385</v>
+        <v>0.02238883457794424</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.764378</v>
+        <v>2.764377999999999</v>
       </c>
       <c r="N10">
-        <v>8.293134</v>
+        <v>8.293133999999998</v>
       </c>
       <c r="O10">
-        <v>0.1605129534066858</v>
+        <v>0.1768065567757656</v>
       </c>
       <c r="P10">
-        <v>0.1605129534066858</v>
+        <v>0.1768065567757657</v>
       </c>
       <c r="Q10">
         <v>106.3057243137853</v>
       </c>
       <c r="R10">
-        <v>956.7515188240679</v>
+        <v>956.7515188240678</v>
       </c>
       <c r="S10">
-        <v>0.00359332242624221</v>
+        <v>0.003958492751948525</v>
       </c>
       <c r="T10">
-        <v>0.00359332242624221</v>
+        <v>0.003958492751948525</v>
       </c>
     </row>
   </sheetData>
